--- a/Caminos_CAPUFE.xlsx
+++ b/Caminos_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2BCB2-FE3D-44AB-B886-FC2A5FD51DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1BB04-2ACB-4D87-8BB5-CFE0E311BBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_12.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
   <si>
     <t>Total</t>
   </si>
@@ -47,12 +47,6 @@
     <t>(Kilómetros)</t>
   </si>
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Durango</t>
   </si>
   <si>
@@ -285,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">            Para Caminos y puentes (FNI), Anterior a 2008 corresponde a FARAC (consultar glosario de términos).</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -710,7 +707,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
@@ -720,19 +717,19 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
@@ -740,13 +737,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>35.5</v>
@@ -760,13 +757,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>41.21</v>
@@ -780,13 +777,13 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6">
         <v>8.3859999999999992</v>
@@ -800,13 +797,13 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -821,13 +818,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -842,13 +839,13 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>20.2</v>
@@ -863,13 +860,13 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <v>38.683999999999997</v>
@@ -884,13 +881,13 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -904,13 +901,13 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6">
         <v>104.5</v>
@@ -924,13 +921,13 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -944,13 +941,13 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -964,13 +961,13 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -984,13 +981,13 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1004,13 +1001,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1024,13 +1021,13 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1044,13 +1041,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>150.1</v>
@@ -1064,13 +1061,13 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -1084,13 +1081,13 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>21.4</v>
@@ -1104,13 +1101,13 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
@@ -1124,13 +1121,13 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1144,13 +1141,13 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1164,13 +1161,13 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>18.899999999999999</v>
@@ -1184,13 +1181,13 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="6">
         <v>8.34</v>
@@ -1204,13 +1201,13 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>17.123999999999999</v>
@@ -1224,13 +1221,13 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -1244,13 +1241,13 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>35.200000000000003</v>
@@ -1264,13 +1261,13 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
@@ -1284,13 +1281,13 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1304,13 +1301,13 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
@@ -1324,13 +1321,13 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1344,13 +1341,13 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -1364,13 +1361,13 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1384,13 +1381,13 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -1404,13 +1401,13 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1424,13 +1421,13 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" s="6">
         <v>44.677999999999997</v>
@@ -1444,13 +1441,13 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>75.397999999999996</v>
@@ -1464,13 +1461,13 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="6">
         <v>132</v>
@@ -1484,13 +1481,13 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1504,13 +1501,13 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1544,13 +1541,13 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45" s="6">
         <v>84</v>
@@ -1564,13 +1561,13 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1584,13 +1581,13 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
@@ -1604,13 +1601,13 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1624,13 +1621,13 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E49" s="6">
         <v>9.4480000000000004</v>
@@ -1644,13 +1641,13 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>70</v>
@@ -1664,13 +1661,13 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
@@ -1684,13 +1681,13 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1704,13 +1701,13 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" s="6">
         <v>14.478</v>
@@ -1724,13 +1721,13 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
         <v>26</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1744,13 +1741,13 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
@@ -1764,13 +1761,13 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
         <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1784,13 +1781,13 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
@@ -1804,13 +1801,13 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
         <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
-        <v>28</v>
       </c>
       <c r="E58">
         <v>93</v>
@@ -1824,13 +1821,13 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="E59" s="10">
         <v>0</v>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1853,7 +1850,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
@@ -1863,18 +1860,17 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="G65" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Caminos_CAPUFE.xlsx
+++ b/Caminos_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1BB04-2ACB-4D87-8BB5-CFE0E311BBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACD984-9580-481F-9095-EAE80CA41074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>

--- a/Caminos_CAPUFE.xlsx
+++ b/Caminos_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACD984-9580-481F-9095-EAE80CA41074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4ECA5C-F0F4-4BEF-8018-C802723D3EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -278,10 +278,10 @@
     <t>Caminos a cargo de CAPUFE 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">            Para Caminos y puentes (FNI), Anterior a 2008 corresponde a FARAC (consultar glosario de términos).</t>
-  </si>
-  <si>
-    <t>Actualización: mayo 2024.</t>
+    <t xml:space="preserve">           Para Caminos y puentes (FNI), Anterior a 2008 corresponde a FARAC (consultar glosario de términos).</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -292,33 +292,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +326,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,9 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -446,6 +443,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,7 +468,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,28 +476,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -506,14 +506,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -694,68 +694,68 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>35.5</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>35.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
@@ -771,31 +771,31 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>41.21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>8.3859999999999992</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>104.663</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>113.04899999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -811,33 +811,33 @@
       <c r="F8">
         <v>55.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f>SUM(E8:F8)</f>
         <v>55.5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>89.54</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>SUM(E9:F9)</f>
         <v>89.54</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -853,33 +853,33 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>SUM(E10:F10)</f>
         <v>20.2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>38.683999999999997</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <f>SUM(E11:F11)</f>
         <v>38.683999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
@@ -895,31 +895,31 @@
       <c r="F12">
         <v>39.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>39.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>104.5</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>104.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -935,31 +935,31 @@
       <c r="F14">
         <v>108.593</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>108.593</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>28.34</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>28.34</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -975,31 +975,31 @@
       <c r="F16">
         <v>0.2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>35.1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>35.1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1015,31 +1015,31 @@
       <c r="F18">
         <v>21</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>114.8</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>114.8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1055,31 +1055,31 @@
       <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>160.1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <v>42</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1095,31 +1095,31 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>21.4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>96.65</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>96.65</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1135,31 +1135,31 @@
       <c r="F24">
         <v>61</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>21</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1175,31 +1175,31 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>8.34</v>
       </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <v>8.34</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1215,31 +1215,31 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>17.123999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
         <v>24.4</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>24.4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1255,31 +1255,31 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
         <v>36.098999999999997</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>36.098999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1295,31 +1295,31 @@
       <c r="F32">
         <v>26.81</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>26.81</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>46.6</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>46.6</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
@@ -1335,31 +1335,31 @@
       <c r="F34">
         <v>90.7</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>90.7</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
         <v>201.58</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>201.58</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
@@ -1375,31 +1375,31 @@
       <c r="F36">
         <v>34.164999999999999</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>34.164999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
         <v>14.5</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1415,31 +1415,31 @@
       <c r="F38">
         <v>33.200000000000003</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>44.677999999999997</v>
       </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>44.677999999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
@@ -1455,31 +1455,31 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>75.397999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>132</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>27</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -1495,31 +1495,31 @@
       <c r="F42">
         <v>56.6</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>56.6</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
         <v>50.255000000000003</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>50.255000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>24</v>
       </c>
@@ -1535,31 +1535,31 @@
       <c r="F44">
         <v>37.1</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>37.1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>84</v>
       </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1575,31 +1575,31 @@
       <c r="F46">
         <v>37.5</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <v>37.5</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
         <v>59.372</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>59.372</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -1615,31 +1615,31 @@
       <c r="F48">
         <v>8.1</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <v>8.1</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>9.4480000000000004</v>
       </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
         <v>9.4480000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
@@ -1655,31 +1655,31 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
         <v>651.70000000000005</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>24</v>
       </c>
@@ -1695,31 +1695,31 @@
       <c r="F52">
         <v>54.112000000000002</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>54.112000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>14.478</v>
       </c>
-      <c r="F53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
         <v>14.478</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
@@ -1735,31 +1735,31 @@
       <c r="F54">
         <v>39</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
         <v>39.299999999999997</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
@@ -1775,31 +1775,31 @@
       <c r="F56">
         <v>98</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
         <v>228</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
@@ -1815,62 +1815,62 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="10" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="10">
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
         <v>37.289000000000001</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>37.289000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="5"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Caminos_CAPUFE.xlsx
+++ b/Caminos_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4ECA5C-F0F4-4BEF-8018-C802723D3EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F8A5B-EF85-4AB1-827B-E5F29F7126A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -278,29 +278,23 @@
     <t>Caminos a cargo de CAPUFE 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">           Para Caminos y puentes (FNI), Anterior a 2008 corresponde a FARAC (consultar glosario de términos).</t>
-  </si>
-  <si>
     <t>Actualización: Mayo 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Para Caminos y puentes (FNI), Anterior a 2008 corresponde a FARAC.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -316,18 +310,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -425,28 +435,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -694,49 +706,50 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -755,34 +768,34 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>41.21</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
         <v>41.21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="5">
@@ -795,29 +808,29 @@
         <v>113.04899999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>55.5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <f>SUM(E8:F8)</f>
         <v>55.5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -837,29 +850,29 @@
         <v>89.54</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>20.2</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <f>SUM(E10:F10)</f>
         <v>20.2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -879,28 +892,28 @@
         <v>38.683999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>39.5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>39.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -919,28 +932,28 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>108.593</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>108.593</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -959,28 +972,28 @@
         <v>28.34</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>0.2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -999,28 +1012,28 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>21</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1039,28 +1052,28 @@
         <v>114.8</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>150.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>10</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>160.1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1079,28 +1092,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>21.4</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
         <v>21.4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1119,28 +1132,28 @@
         <v>96.65</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <v>61</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1159,28 +1172,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1199,28 +1212,28 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>17.123999999999999</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>17.123999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1239,28 +1252,28 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1279,28 +1292,28 @@
         <v>36.098999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>26.81</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>26.81</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1319,28 +1332,28 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
         <v>90.7</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>90.7</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1359,28 +1372,28 @@
         <v>201.58</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>34.164999999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>34.164999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1399,28 +1412,28 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>33.200000000000003</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="8">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1439,28 +1452,28 @@
         <v>44.677999999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>75.397999999999996</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
         <v>75.397999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1479,28 +1492,28 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>56.6</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <v>56.6</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1519,28 +1532,28 @@
         <v>50.255000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>37.1</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>37.1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1559,28 +1572,28 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>37.5</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>37.5</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1599,28 +1612,28 @@
         <v>59.372</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>8.1</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -1639,28 +1652,28 @@
         <v>9.4480000000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>70</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -1679,28 +1692,28 @@
         <v>651.70000000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>54.112000000000002</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="8">
         <v>54.112000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -1719,28 +1732,28 @@
         <v>14.478</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>39</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1759,28 +1772,28 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
         <v>98</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -1799,81 +1812,81 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>93</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="9" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
         <v>37.289000000000001</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="12">
         <v>37.289000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="4"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G65" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>